--- a/OCAP TRE.xlsx
+++ b/OCAP TRE.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="21">
   <si>
     <t>SETOR</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>CIP</t>
-  </si>
-  <si>
-    <t>FREQUÊNCUA MÍNIMA</t>
   </si>
   <si>
     <t>2 vezes / semana.</t>
@@ -65,9 +62,6 @@
     <t>ST</t>
   </si>
   <si>
-    <t>Média de dias semanaL</t>
-  </si>
-  <si>
     <t>1 veze / semana.</t>
   </si>
   <si>
@@ -76,13 +70,22 @@
   <si>
     <t xml:space="preserve"> - 'Caso não seja possível recuperar a média, deve se entrar em contato com os representantes da TI, e verificar o motivo do indíce das médias não estar sendo gerado.
 - Caso o índice nao seja gerado, é necessario o controle manual dos valores médios, para manutenção da etapa do Control.</t>
+  </si>
+  <si>
+    <t>FREQUÊNCIA MÍNIMA</t>
+  </si>
+  <si>
+    <t>DURANTE AS REUNIOES DE KANBAN MOSTRAR O LEADTIME, CASO PASSAR O LEADTIME, TOMAR ALGUMA AÇÃO.</t>
+  </si>
+  <si>
+    <t>Média de dias de tramitação</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +106,20 @@
       <u/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -134,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -145,8 +162,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -452,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -466,7 +487,7 @@
     <col min="5" max="5" width="43.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -477,13 +498,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -491,136 +512,140 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="E5" s="5"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="B10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="E10" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -628,5 +653,6 @@
     <mergeCell ref="E4:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>